--- a/袁康/测试用例_袁康.xlsx
+++ b/袁康/测试用例_袁康.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\testclass\android-studio\OnePill\github\OnePillTest_2020\袁康\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E63B7A0-E19D-4746-8B7D-6DF4D882DF0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEE7FCF-19EF-4D3B-B361-1AF375E367EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1740" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{85AEE31A-9795-4164-8A49-6C0EA3CE26CE}"/>
+    <workbookView xWindow="4260" yWindow="765" windowWidth="21600" windowHeight="11385" xr2:uid="{85AEE31A-9795-4164-8A49-6C0EA3CE26CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C836A582-90C3-45F0-8359-3E0BF18D28AE}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -818,7 +818,7 @@
     <col min="3" max="3" width="32.75" customWidth="1"/>
     <col min="4" max="4" width="22.625" customWidth="1"/>
     <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
     <col min="9" max="9" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
